--- a/assets/data/ModuleInfo.xlsx
+++ b/assets/data/ModuleInfo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sereb\Documents\GitHub\spaceblocker\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sereb\OneDrive\GitHub\SpaceBlockerV1.0\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -710,10 +710,13 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="69.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
